--- a/residential/exemptions/new/GANTT.xlsx
+++ b/residential/exemptions/new/GANTT.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8D97E6-8049-1E4C-826F-608F6CD1D6E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DA685E-D24B-5C4A-9B13-B2857B8BED99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="460" windowWidth="32920" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
-    <t>Project Start:</t>
-  </si>
-  <si>
     <t>PROGRESS</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Post Intake Detail</t>
+  </si>
+  <si>
+    <t>Exemption Applications Due:</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
     <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="d"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,14 +305,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -342,6 +334,29 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -416,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -536,6 +551,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -567,7 +688,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -585,9 +706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -636,13 +754,10 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="12" applyFont="1" applyFill="1">
@@ -654,22 +769,22 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
@@ -678,7 +793,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
@@ -690,58 +805,43 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -751,10 +851,70 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="17" xfId="9" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="9" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -977,15 +1137,15 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FF000000"/>
       <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
       <color rgb="FF969696"/>
-      <color rgb="FFC0C0C0"/>
       <color rgb="FF427FC2"/>
       <color rgb="FF44678E"/>
       <color rgb="FF4A6F9C"/>
       <color rgb="FF3969AD"/>
-      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1268,13 +1428,13 @@
   <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BO11" sqref="BO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="50.5" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
@@ -1303,2360 +1463,2382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>16</v>
+      <c r="A1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="17"/>
+      <c r="G1" s="16"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="13"/>
+      <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="66" t="s">
+    <row r="2" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:65" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="77">
+        <v>43931</v>
+      </c>
+      <c r="G3" s="78"/>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="4" spans="1:65" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="65">
-        <v>43931</v>
-      </c>
-      <c r="G3" s="65"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="7">
+      <c r="C4" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="79">
         <v>1</v>
       </c>
-      <c r="J4" s="62" t="str">
+      <c r="J4" s="55" t="str">
         <f>CONCATENATE("Week ",WEEKNUM(J5))</f>
         <v>Week 15</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="62" t="str">
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="55" t="str">
         <f>CONCATENATE("Week ",WEEKNUM(Q5))</f>
         <v>Week 16</v>
       </c>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="62" t="str">
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="55" t="str">
         <f>CONCATENATE("Week ",WEEKNUM(X5))</f>
         <v>Week 17</v>
       </c>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="62" t="str">
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="55" t="str">
         <f>CONCATENATE("Week ",WEEKNUM(AE5))</f>
         <v>Week 18</v>
       </c>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="62" t="str">
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="55" t="str">
         <f>CONCATENATE("Week ",WEEKNUM(AN5))</f>
         <v>Week 19</v>
       </c>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="64"/>
-      <c r="AS4" s="62" t="str">
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="55" t="str">
         <f>CONCATENATE("Week ",WEEKNUM(AS5))</f>
         <v>Week 20</v>
       </c>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="64"/>
-      <c r="AZ4" s="62" t="str">
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="55" t="str">
         <f>CONCATENATE("Week ",WEEKNUM(AZ5))</f>
         <v>Week 21</v>
       </c>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="63"/>
-      <c r="BF4" s="64"/>
-      <c r="BG4" s="62" t="str">
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="57"/>
+      <c r="BG4" s="55" t="str">
         <f>CONCATENATE("Week ",WEEKNUM(BG5))</f>
         <v>Week 22</v>
       </c>
-      <c r="BH4" s="63"/>
-      <c r="BI4" s="63"/>
-      <c r="BJ4" s="63"/>
-      <c r="BK4" s="63"/>
-      <c r="BL4" s="63"/>
-      <c r="BM4" s="64"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="57"/>
     </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="J5" s="10">
+    <row r="5" spans="1:65" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="J5" s="9">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43927</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f>J5+1</f>
         <v>43928</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <f t="shared" ref="L5:AY5" si="0">K5+1</f>
         <v>43929</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <f t="shared" si="0"/>
         <v>43930</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <f t="shared" si="0"/>
         <v>43931</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <f t="shared" si="0"/>
         <v>43932</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <f t="shared" si="0"/>
         <v>43933</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <f>P5+1</f>
         <v>43934</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <f>Q5+1</f>
         <v>43935</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="8">
         <f t="shared" si="0"/>
         <v>43937</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="8">
         <f t="shared" si="0"/>
         <v>43938</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="8">
         <f t="shared" si="0"/>
         <v>43939</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="10">
         <f t="shared" si="0"/>
         <v>43940</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="9">
         <f>W5+1</f>
         <v>43941</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="8">
         <f>X5+1</f>
         <v>43942</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="8">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="8">
         <f t="shared" si="0"/>
         <v>43944</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="8">
         <f t="shared" si="0"/>
         <v>43945</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="8">
         <f t="shared" si="0"/>
         <v>43946</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AD5" s="10">
         <f t="shared" si="0"/>
         <v>43947</v>
       </c>
-      <c r="AE5" s="10">
+      <c r="AE5" s="9">
         <f>AD5+1</f>
         <v>43948</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AF5" s="8">
         <f>AE5+1</f>
         <v>43949</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AG5" s="8">
         <f t="shared" si="0"/>
         <v>43950</v>
       </c>
-      <c r="AH5" s="9">
+      <c r="AH5" s="8">
         <f t="shared" si="0"/>
         <v>43951</v>
       </c>
-      <c r="AI5" s="9">
+      <c r="AI5" s="8">
         <f t="shared" si="0"/>
         <v>43952</v>
       </c>
-      <c r="AJ5" s="9">
+      <c r="AJ5" s="8">
         <f t="shared" si="0"/>
         <v>43953</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="AK5" s="10">
         <f t="shared" si="0"/>
         <v>43954</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AL5" s="9">
         <f>AK5+1</f>
         <v>43955</v>
       </c>
-      <c r="AM5" s="9">
+      <c r="AM5" s="8">
         <f>AL5+1</f>
         <v>43956</v>
       </c>
-      <c r="AN5" s="9">
+      <c r="AN5" s="8">
         <f t="shared" si="0"/>
         <v>43957</v>
       </c>
-      <c r="AO5" s="9">
+      <c r="AO5" s="8">
         <f t="shared" si="0"/>
         <v>43958</v>
       </c>
-      <c r="AP5" s="9">
+      <c r="AP5" s="8">
         <f t="shared" si="0"/>
         <v>43959</v>
       </c>
-      <c r="AQ5" s="9">
+      <c r="AQ5" s="8">
         <f t="shared" si="0"/>
         <v>43960</v>
       </c>
-      <c r="AR5" s="11">
+      <c r="AR5" s="10">
         <f t="shared" si="0"/>
         <v>43961</v>
       </c>
-      <c r="AS5" s="10">
+      <c r="AS5" s="9">
         <f>AR5+1</f>
         <v>43962</v>
       </c>
-      <c r="AT5" s="9">
+      <c r="AT5" s="8">
         <f>AS5+1</f>
         <v>43963</v>
       </c>
-      <c r="AU5" s="9">
+      <c r="AU5" s="8">
         <f t="shared" si="0"/>
         <v>43964</v>
       </c>
-      <c r="AV5" s="9">
+      <c r="AV5" s="8">
         <f t="shared" si="0"/>
         <v>43965</v>
       </c>
-      <c r="AW5" s="9">
+      <c r="AW5" s="8">
         <f t="shared" si="0"/>
         <v>43966</v>
       </c>
-      <c r="AX5" s="9">
+      <c r="AX5" s="8">
         <f t="shared" si="0"/>
         <v>43967</v>
       </c>
-      <c r="AY5" s="11">
+      <c r="AY5" s="10">
         <f t="shared" si="0"/>
         <v>43968</v>
       </c>
-      <c r="AZ5" s="10">
+      <c r="AZ5" s="9">
         <f>AY5+1</f>
         <v>43969</v>
       </c>
-      <c r="BA5" s="9">
+      <c r="BA5" s="8">
         <f>AZ5+1</f>
         <v>43970</v>
       </c>
-      <c r="BB5" s="9">
+      <c r="BB5" s="8">
         <f t="shared" ref="BB5:BF5" si="1">BA5+1</f>
         <v>43971</v>
       </c>
-      <c r="BC5" s="9">
+      <c r="BC5" s="8">
         <f t="shared" si="1"/>
         <v>43972</v>
       </c>
-      <c r="BD5" s="9">
+      <c r="BD5" s="8">
         <f t="shared" si="1"/>
         <v>43973</v>
       </c>
-      <c r="BE5" s="9">
+      <c r="BE5" s="8">
         <f t="shared" si="1"/>
         <v>43974</v>
       </c>
-      <c r="BF5" s="11">
+      <c r="BF5" s="10">
         <f t="shared" si="1"/>
         <v>43975</v>
       </c>
-      <c r="BG5" s="10">
+      <c r="BG5" s="9">
         <f>BF5+1</f>
         <v>43976</v>
       </c>
-      <c r="BH5" s="9">
+      <c r="BH5" s="8">
         <f>BG5+1</f>
         <v>43977</v>
       </c>
-      <c r="BI5" s="9">
+      <c r="BI5" s="8">
         <f t="shared" ref="BI5:BM5" si="2">BH5+1</f>
         <v>43978</v>
       </c>
-      <c r="BJ5" s="9">
+      <c r="BJ5" s="8">
         <f t="shared" si="2"/>
         <v>43979</v>
       </c>
-      <c r="BK5" s="9">
+      <c r="BK5" s="8">
         <f t="shared" si="2"/>
         <v>43980</v>
       </c>
-      <c r="BL5" s="9">
+      <c r="BL5" s="8">
         <f t="shared" si="2"/>
         <v>43981</v>
       </c>
-      <c r="BM5" s="11">
+      <c r="BM5" s="10">
         <f t="shared" si="2"/>
         <v>43982</v>
       </c>
     </row>
     <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="A6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="G6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="12" t="str">
+      <c r="J6" s="11" t="str">
         <f t="shared" ref="J6" si="3">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="K6" s="12" t="str">
+      <c r="K6" s="11" t="str">
         <f t="shared" ref="K6:AS6" si="4">LEFT(TEXT(K5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="L6" s="12" t="str">
+      <c r="L6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="M6" s="12" t="str">
+      <c r="M6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="N6" s="12" t="str">
+      <c r="N6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="O6" s="12" t="str">
+      <c r="O6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="P6" s="12" t="str">
+      <c r="P6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="Q6" s="12" t="str">
+      <c r="Q6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="R6" s="12" t="str">
+      <c r="R6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="S6" s="12" t="str">
+      <c r="S6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="T6" s="12" t="str">
+      <c r="T6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="U6" s="12" t="str">
+      <c r="U6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="V6" s="12" t="str">
+      <c r="V6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="W6" s="12" t="str">
+      <c r="W6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="X6" s="12" t="str">
+      <c r="X6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="Y6" s="12" t="str">
+      <c r="Y6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="Z6" s="12" t="str">
+      <c r="Z6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AA6" s="12" t="str">
+      <c r="AA6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AB6" s="12" t="str">
+      <c r="AB6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AC6" s="12" t="str">
+      <c r="AC6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="12" t="str">
+      <c r="AD6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AE6" s="12" t="str">
+      <c r="AE6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AF6" s="12" t="str">
+      <c r="AF6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AG6" s="12" t="str">
+      <c r="AG6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AH6" s="12" t="str">
+      <c r="AH6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AI6" s="12" t="str">
+      <c r="AI6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AJ6" s="12" t="str">
+      <c r="AJ6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AK6" s="12" t="str">
+      <c r="AK6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AL6" s="12" t="str">
+      <c r="AL6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AM6" s="12" t="str">
+      <c r="AM6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AN6" s="12" t="str">
+      <c r="AN6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AO6" s="12" t="str">
+      <c r="AO6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AP6" s="12" t="str">
+      <c r="AP6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AQ6" s="12" t="str">
+      <c r="AQ6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AR6" s="12" t="str">
+      <c r="AR6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AS6" s="12" t="str">
+      <c r="AS6" s="11" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AT6" s="12" t="str">
+      <c r="AT6" s="11" t="str">
         <f t="shared" ref="AT6:BM6" si="5">LEFT(TEXT(AT5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AU6" s="12" t="str">
+      <c r="AU6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="AV6" s="12" t="str">
+      <c r="AV6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AW6" s="12" t="str">
+      <c r="AW6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="AX6" s="12" t="str">
+      <c r="AX6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="12" t="str">
+      <c r="AY6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AZ6" s="12" t="str">
+      <c r="AZ6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="BA6" s="12" t="str">
+      <c r="BA6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BB6" s="12" t="str">
+      <c r="BB6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="BC6" s="12" t="str">
+      <c r="BC6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BD6" s="12" t="str">
+      <c r="BD6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="BE6" s="12" t="str">
+      <c r="BE6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BF6" s="12" t="str">
+      <c r="BF6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BG6" s="12" t="str">
+      <c r="BG6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="BH6" s="12" t="str">
+      <c r="BH6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BI6" s="12" t="str">
+      <c r="BI6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="BJ6" s="12" t="str">
+      <c r="BJ6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BK6" s="12" t="str">
+      <c r="BK6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="BL6" s="12" t="str">
+      <c r="BL6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BM6" s="12" t="str">
+      <c r="BM6" s="11" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+    <row r="7" spans="1:65" ht="7" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="F7"/>
       <c r="I7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="16"/>
-      <c r="AP7" s="16"/>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="16"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="16"/>
-      <c r="BE7" s="16"/>
-      <c r="BF7" s="16"/>
-      <c r="BG7" s="16"/>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="16"/>
-      <c r="BJ7" s="16"/>
-      <c r="BK7" s="16"/>
-      <c r="BL7" s="16"/>
-      <c r="BM7" s="16"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="74">
         <f>G8-F8</f>
         <v>15</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="34">
         <f ca="1">MIN(1,MAX(0,((G8-F8)-(G8-TODAY()))/(G8-F8)))</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="35">
         <f>F9</f>
         <v>43931</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="35">
         <f>G13</f>
         <v>43946</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="16"/>
-      <c r="AP8" s="16"/>
-      <c r="AQ8" s="16"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="16"/>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16"/>
-      <c r="AW8" s="16"/>
-      <c r="AX8" s="16"/>
-      <c r="AY8" s="16"/>
-      <c r="AZ8" s="16"/>
-      <c r="BA8" s="16"/>
-      <c r="BB8" s="16"/>
-      <c r="BC8" s="16"/>
-      <c r="BD8" s="16"/>
-      <c r="BE8" s="16"/>
-      <c r="BF8" s="16"/>
-      <c r="BG8" s="16"/>
-      <c r="BH8" s="16"/>
-      <c r="BI8" s="16"/>
-      <c r="BJ8" s="16"/>
-      <c r="BK8" s="16"/>
-      <c r="BL8" s="16"/>
-      <c r="BM8" s="16"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
+      <c r="BM8" s="15"/>
     </row>
     <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="39">
+      <c r="A9" s="17"/>
+      <c r="B9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="76">
         <v>1</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="38">
+        <f ca="1">IF(TODAY()&gt;F9,1,0)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="39">
         <f>G9</f>
         <v>43931</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="39">
         <f>F10-1</f>
         <v>43931</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14">
         <f t="shared" ref="I9:I27" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>1</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="16"/>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="16"/>
-      <c r="BF9" s="16"/>
-      <c r="BG9" s="16"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="16"/>
-      <c r="BK9" s="16"/>
-      <c r="BL9" s="16"/>
-      <c r="BM9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
     </row>
     <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="39">
+      <c r="D10" s="76">
         <v>2</v>
       </c>
-      <c r="E10" s="40">
-        <v>0</v>
-      </c>
-      <c r="F10" s="41">
+      <c r="E10" s="38">
+        <f ca="1">MIN(1,MAX(0,((G10-F10)-(G10-TODAY()))/(G10-F10)))</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="39">
         <v>43932</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="39">
         <f>F10+D10</f>
         <v>43934</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15">
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="16"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="16"/>
-      <c r="BF10" s="16"/>
-      <c r="BG10" s="16"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="16"/>
-      <c r="BK10" s="16"/>
-      <c r="BL10" s="16"/>
-      <c r="BM10" s="16"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
     </row>
     <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="39">
+      <c r="A11" s="17"/>
+      <c r="B11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="76">
         <v>1</v>
       </c>
-      <c r="E11" s="40">
-        <v>0</v>
-      </c>
-      <c r="F11" s="41">
+      <c r="E11" s="38">
+        <f ca="1">IF(TODAY()&gt;F11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="39">
         <f>G10+1</f>
         <v>43935</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="39">
         <f>F11</f>
         <v>43935</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="16"/>
-      <c r="AR11" s="16"/>
-      <c r="AS11" s="16"/>
-      <c r="AT11" s="16"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="16"/>
-      <c r="AW11" s="16"/>
-      <c r="AX11" s="16"/>
-      <c r="AY11" s="16"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="16"/>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="16"/>
-      <c r="BD11" s="16"/>
-      <c r="BE11" s="16"/>
-      <c r="BF11" s="16"/>
-      <c r="BG11" s="16"/>
-      <c r="BH11" s="16"/>
-      <c r="BI11" s="16"/>
-      <c r="BJ11" s="16"/>
-      <c r="BK11" s="16"/>
-      <c r="BL11" s="16"/>
-      <c r="BM11" s="16"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="15"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="15"/>
+      <c r="BM11" s="15"/>
     </row>
     <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="39">
+      <c r="A12" s="17"/>
+      <c r="B12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="76">
         <v>1</v>
       </c>
-      <c r="E12" s="40">
-        <v>0</v>
-      </c>
-      <c r="F12" s="41">
+      <c r="E12" s="38">
+        <f ca="1">IF(TODAY()&gt;F12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="39">
         <f>G11+1</f>
         <v>43936</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="39">
         <f>F12</f>
         <v>43936</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="16"/>
-      <c r="AR12" s="16"/>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="16"/>
-      <c r="AV12" s="16"/>
-      <c r="AW12" s="16"/>
-      <c r="AX12" s="16"/>
-      <c r="AY12" s="16"/>
-      <c r="AZ12" s="16"/>
-      <c r="BA12" s="16"/>
-      <c r="BB12" s="16"/>
-      <c r="BC12" s="16"/>
-      <c r="BD12" s="16"/>
-      <c r="BE12" s="16"/>
-      <c r="BF12" s="16"/>
-      <c r="BG12" s="16"/>
-      <c r="BH12" s="16"/>
-      <c r="BI12" s="16"/>
-      <c r="BJ12" s="16"/>
-      <c r="BK12" s="16"/>
-      <c r="BL12" s="16"/>
-      <c r="BM12" s="16"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
+      <c r="BM12" s="15"/>
     </row>
     <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="39" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="39">
+      <c r="C13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="76">
         <v>10</v>
       </c>
-      <c r="E13" s="40">
-        <v>0</v>
-      </c>
-      <c r="F13" s="41">
+      <c r="E13" s="38">
+        <f ca="1">MIN(1,MAX(0,((G13-F13)-(G13-TODAY()))/(G13-F13)))</f>
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="39">
         <f>G12</f>
         <v>43936</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="39">
         <f>F13+D13</f>
         <v>43946</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="16"/>
-      <c r="AR13" s="16"/>
-      <c r="AS13" s="16"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="16"/>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="16"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="16"/>
-      <c r="AZ13" s="16"/>
-      <c r="BA13" s="16"/>
-      <c r="BB13" s="16"/>
-      <c r="BC13" s="16"/>
-      <c r="BD13" s="16"/>
-      <c r="BE13" s="16"/>
-      <c r="BF13" s="16"/>
-      <c r="BG13" s="16"/>
-      <c r="BH13" s="16"/>
-      <c r="BI13" s="16"/>
-      <c r="BJ13" s="16"/>
-      <c r="BK13" s="16"/>
-      <c r="BL13" s="16"/>
-      <c r="BM13" s="16"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
+      <c r="BM13" s="15"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="73">
         <f>G14-F14</f>
-        <v>25</v>
-      </c>
-      <c r="E14" s="48">
+        <v>24</v>
+      </c>
+      <c r="E14" s="46">
         <f ca="1">MIN(1,MAX(0,((G14-F14)-(G14-TODAY()))/(G14-F14)))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="49">
-        <f>G13</f>
-        <v>43946</v>
-      </c>
-      <c r="G14" s="49">
+      <c r="F14" s="47">
+        <f>F15</f>
+        <v>43947</v>
+      </c>
+      <c r="G14" s="47">
         <f>G20</f>
         <v>43971</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="16"/>
-      <c r="AP14" s="16"/>
-      <c r="AQ14" s="16"/>
-      <c r="AR14" s="16"/>
-      <c r="AS14" s="16"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="16"/>
-      <c r="AW14" s="16"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
-      <c r="AZ14" s="16"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="16"/>
-      <c r="BD14" s="16"/>
-      <c r="BE14" s="16"/>
-      <c r="BF14" s="16"/>
-      <c r="BG14" s="16"/>
-      <c r="BH14" s="16"/>
-      <c r="BI14" s="16"/>
-      <c r="BJ14" s="16"/>
-      <c r="BK14" s="16"/>
-      <c r="BL14" s="16"/>
-      <c r="BM14" s="16"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
     </row>
     <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="43">
+      <c r="A15" s="17"/>
+      <c r="B15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="75">
         <v>3</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="42">
+        <f t="shared" ref="E15:E20" ca="1" si="7">MIN(1,MAX(0,((G15-F15)-(G15-TODAY()))/(G15-F15)))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="45">
-        <f>G13</f>
-        <v>43946</v>
-      </c>
-      <c r="G15" s="45">
-        <f>F15+D15</f>
-        <v>43949</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="16"/>
-      <c r="AP15" s="16"/>
-      <c r="AQ15" s="16"/>
-      <c r="AR15" s="16"/>
-      <c r="AS15" s="16"/>
-      <c r="AT15" s="16"/>
-      <c r="AU15" s="16"/>
-      <c r="AV15" s="16"/>
-      <c r="AW15" s="16"/>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="16"/>
-      <c r="AZ15" s="16"/>
-      <c r="BA15" s="16"/>
-      <c r="BB15" s="16"/>
-      <c r="BC15" s="16"/>
-      <c r="BD15" s="16"/>
-      <c r="BE15" s="16"/>
-      <c r="BF15" s="16"/>
-      <c r="BG15" s="16"/>
-      <c r="BH15" s="16"/>
-      <c r="BI15" s="16"/>
-      <c r="BJ15" s="16"/>
-      <c r="BK15" s="16"/>
-      <c r="BL15" s="16"/>
-      <c r="BM15" s="16"/>
+      <c r="F15" s="43">
+        <f>G15-D15</f>
+        <v>43947</v>
+      </c>
+      <c r="G15" s="43">
+        <f>F16-1</f>
+        <v>43950</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="15"/>
+      <c r="AZ15" s="15"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="15"/>
+      <c r="BC15" s="15"/>
+      <c r="BD15" s="15"/>
+      <c r="BE15" s="15"/>
+      <c r="BF15" s="15"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="15"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="15"/>
+      <c r="BM15" s="15"/>
     </row>
     <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="43">
+      <c r="A16" s="17"/>
+      <c r="B16" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="75">
         <v>4</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="42">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="F16" s="45">
-        <f>G15+1</f>
-        <v>43950</v>
-      </c>
-      <c r="G16" s="45">
-        <f>F16+D16</f>
-        <v>43954</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="16"/>
-      <c r="AN16" s="16"/>
-      <c r="AO16" s="16"/>
-      <c r="AP16" s="16"/>
-      <c r="AQ16" s="16"/>
-      <c r="AR16" s="16"/>
-      <c r="AS16" s="16"/>
-      <c r="AT16" s="16"/>
-      <c r="AU16" s="16"/>
-      <c r="AV16" s="16"/>
-      <c r="AW16" s="16"/>
-      <c r="AX16" s="16"/>
-      <c r="AY16" s="16"/>
-      <c r="AZ16" s="16"/>
-      <c r="BA16" s="16"/>
-      <c r="BB16" s="16"/>
-      <c r="BC16" s="16"/>
-      <c r="BD16" s="16"/>
-      <c r="BE16" s="16"/>
-      <c r="BF16" s="16"/>
-      <c r="BG16" s="16"/>
-      <c r="BH16" s="16"/>
-      <c r="BI16" s="16"/>
-      <c r="BJ16" s="16"/>
-      <c r="BK16" s="16"/>
-      <c r="BL16" s="16"/>
-      <c r="BM16" s="16"/>
+      <c r="F16" s="43">
+        <f>G16-D16</f>
+        <v>43951</v>
+      </c>
+      <c r="G16" s="43">
+        <f>F17-1</f>
+        <v>43955</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="15"/>
+      <c r="BD16" s="15"/>
+      <c r="BE16" s="15"/>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="15"/>
+      <c r="BH16" s="15"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="15"/>
+      <c r="BL16" s="15"/>
+      <c r="BM16" s="15"/>
     </row>
     <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="43">
+      <c r="A17" s="17"/>
+      <c r="B17" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="75">
         <v>4</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="42">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="43">
         <f>G17-D17</f>
         <v>43956</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="43">
         <f>F18-1</f>
         <v>43960</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="16"/>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="16"/>
-      <c r="AR17" s="16"/>
-      <c r="AS17" s="16"/>
-      <c r="AT17" s="16"/>
-      <c r="AU17" s="16"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="16"/>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="16"/>
-      <c r="BA17" s="16"/>
-      <c r="BB17" s="16"/>
-      <c r="BC17" s="16"/>
-      <c r="BD17" s="16"/>
-      <c r="BE17" s="16"/>
-      <c r="BF17" s="16"/>
-      <c r="BG17" s="16"/>
-      <c r="BH17" s="16"/>
-      <c r="BI17" s="16"/>
-      <c r="BJ17" s="16"/>
-      <c r="BK17" s="16"/>
-      <c r="BL17" s="16"/>
-      <c r="BM17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="15"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="15"/>
+      <c r="BC17" s="15"/>
+      <c r="BD17" s="15"/>
+      <c r="BE17" s="15"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="15"/>
+      <c r="BH17" s="15"/>
+      <c r="BI17" s="15"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="15"/>
+      <c r="BM17" s="15"/>
     </row>
     <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="43">
+      <c r="A18" s="17"/>
+      <c r="B18" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="75">
         <v>4</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="42">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="43">
         <f>G18-D18</f>
         <v>43961</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="43">
         <f>F19-1</f>
         <v>43965</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="16"/>
-      <c r="AQ18" s="16"/>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="16"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
-      <c r="AZ18" s="16"/>
-      <c r="BA18" s="16"/>
-      <c r="BB18" s="16"/>
-      <c r="BC18" s="16"/>
-      <c r="BD18" s="16"/>
-      <c r="BE18" s="16"/>
-      <c r="BF18" s="16"/>
-      <c r="BG18" s="16"/>
-      <c r="BH18" s="16"/>
-      <c r="BI18" s="16"/>
-      <c r="BJ18" s="16"/>
-      <c r="BK18" s="16"/>
-      <c r="BL18" s="16"/>
-      <c r="BM18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="15"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="15"/>
+      <c r="BL18" s="15"/>
+      <c r="BM18" s="15"/>
     </row>
     <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="43">
+      <c r="D19" s="75">
         <v>3</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="42">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="43">
         <f>G19-D19</f>
         <v>43966</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="43">
         <f>F20-1</f>
         <v>43969</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="16"/>
-      <c r="AN19" s="16"/>
-      <c r="AO19" s="16"/>
-      <c r="AP19" s="16"/>
-      <c r="AQ19" s="16"/>
-      <c r="AR19" s="16"/>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="16"/>
-      <c r="AX19" s="16"/>
-      <c r="AY19" s="16"/>
-      <c r="AZ19" s="16"/>
-      <c r="BA19" s="16"/>
-      <c r="BB19" s="16"/>
-      <c r="BC19" s="16"/>
-      <c r="BD19" s="16"/>
-      <c r="BE19" s="16"/>
-      <c r="BF19" s="16"/>
-      <c r="BG19" s="16"/>
-      <c r="BH19" s="16"/>
-      <c r="BI19" s="16"/>
-      <c r="BJ19" s="16"/>
-      <c r="BK19" s="16"/>
-      <c r="BL19" s="16"/>
-      <c r="BM19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="15"/>
+      <c r="BM19" s="15"/>
     </row>
     <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="43">
+      <c r="A20" s="17"/>
+      <c r="B20" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="75">
         <v>1</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="42">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="66">
         <f>G20-D20</f>
         <v>43970</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="43">
         <f>F21-1</f>
         <v>43971</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15">
+      <c r="H20" s="14"/>
+      <c r="I20" s="14">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="16"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="16"/>
-      <c r="AX20" s="16"/>
-      <c r="AY20" s="16"/>
-      <c r="AZ20" s="16"/>
-      <c r="BA20" s="16"/>
-      <c r="BB20" s="16"/>
-      <c r="BC20" s="16"/>
-      <c r="BD20" s="16"/>
-      <c r="BE20" s="16"/>
-      <c r="BF20" s="16"/>
-      <c r="BG20" s="16"/>
-      <c r="BH20" s="16"/>
-      <c r="BI20" s="16"/>
-      <c r="BJ20" s="16"/>
-      <c r="BK20" s="16"/>
-      <c r="BL20" s="16"/>
-      <c r="BM20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="50">
-        <v>21</v>
-      </c>
-      <c r="E21" s="51">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="72">
+        <f>G21-F21</f>
+        <v>10</v>
+      </c>
+      <c r="E21" s="48">
         <f ca="1">MIN(1,MAX(0,((G21-F21)-(G21-TODAY()))/(G21-F21)))</f>
         <v>0</v>
       </c>
-      <c r="F21" s="52">
-        <f>F22</f>
+      <c r="F21" s="68">
         <v>43972</v>
       </c>
-      <c r="G21" s="53">
-        <f>F21+D21</f>
-        <v>43993</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15">
+      <c r="G21" s="49">
+        <f>G26</f>
+        <v>43982</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14">
         <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="16"/>
-      <c r="AN21" s="16"/>
-      <c r="AO21" s="16"/>
-      <c r="AP21" s="16"/>
-      <c r="AQ21" s="16"/>
-      <c r="AR21" s="16"/>
-      <c r="AS21" s="16"/>
-      <c r="AT21" s="16"/>
-      <c r="AU21" s="16"/>
-      <c r="AV21" s="16"/>
-      <c r="AW21" s="16"/>
-      <c r="AX21" s="16"/>
-      <c r="AY21" s="16"/>
-      <c r="AZ21" s="16"/>
-      <c r="BA21" s="16"/>
-      <c r="BB21" s="16"/>
-      <c r="BC21" s="16"/>
-      <c r="BD21" s="16"/>
-      <c r="BE21" s="16"/>
-      <c r="BF21" s="16"/>
-      <c r="BG21" s="16"/>
-      <c r="BH21" s="16"/>
-      <c r="BI21" s="16"/>
-      <c r="BJ21" s="16"/>
-      <c r="BK21" s="16"/>
-      <c r="BL21" s="16"/>
-      <c r="BM21" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
+      <c r="BM21" s="15"/>
     </row>
     <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="30">
+      <c r="A22" s="17"/>
+      <c r="B22" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="69">
         <v>0</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="30">
+        <f ca="1">IF(TODAY()&gt;F22,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="67">
+        <f>F21</f>
         <v>43972</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="31">
         <f>F22+D22</f>
         <v>43972</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15">
+      <c r="H22" s="14"/>
+      <c r="I22" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="16"/>
-      <c r="AK22" s="16"/>
-      <c r="AL22" s="16"/>
-      <c r="AM22" s="16"/>
-      <c r="AN22" s="16"/>
-      <c r="AO22" s="16"/>
-      <c r="AP22" s="16"/>
-      <c r="AQ22" s="16"/>
-      <c r="AR22" s="16"/>
-      <c r="AS22" s="16"/>
-      <c r="AT22" s="16"/>
-      <c r="AU22" s="16"/>
-      <c r="AV22" s="16"/>
-      <c r="AW22" s="16"/>
-      <c r="AX22" s="16"/>
-      <c r="AY22" s="16"/>
-      <c r="AZ22" s="16"/>
-      <c r="BA22" s="16"/>
-      <c r="BB22" s="16"/>
-      <c r="BC22" s="16"/>
-      <c r="BD22" s="16"/>
-      <c r="BE22" s="16"/>
-      <c r="BF22" s="16"/>
-      <c r="BG22" s="16"/>
-      <c r="BH22" s="16"/>
-      <c r="BI22" s="16"/>
-      <c r="BJ22" s="16"/>
-      <c r="BK22" s="16"/>
-      <c r="BL22" s="16"/>
-      <c r="BM22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
+      <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
+      <c r="BE22" s="15"/>
+      <c r="BF22" s="15"/>
+      <c r="BG22" s="15"/>
+      <c r="BH22" s="15"/>
+      <c r="BI22" s="15"/>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="15"/>
+      <c r="BL22" s="15"/>
+      <c r="BM22" s="15"/>
     </row>
     <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="30">
+      <c r="A23" s="17"/>
+      <c r="B23" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="70">
         <v>4</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="30">
+        <f t="shared" ref="E22:E26" ca="1" si="8">MIN(1,MAX(0,((G23-F23)-(G23-TODAY()))/(G23-F23)))</f>
         <v>0</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="31">
         <f>G22</f>
         <v>43972</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="31">
         <f>F23+D23</f>
         <v>43976</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15">
+      <c r="H23" s="14"/>
+      <c r="I23" s="14">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-      <c r="AM23" s="16"/>
-      <c r="AN23" s="16"/>
-      <c r="AO23" s="16"/>
-      <c r="AP23" s="16"/>
-      <c r="AQ23" s="16"/>
-      <c r="AR23" s="16"/>
-      <c r="AS23" s="16"/>
-      <c r="AT23" s="16"/>
-      <c r="AU23" s="16"/>
-      <c r="AV23" s="16"/>
-      <c r="AW23" s="16"/>
-      <c r="AX23" s="16"/>
-      <c r="AY23" s="16"/>
-      <c r="AZ23" s="16"/>
-      <c r="BA23" s="16"/>
-      <c r="BB23" s="16"/>
-      <c r="BC23" s="16"/>
-      <c r="BD23" s="16"/>
-      <c r="BE23" s="16"/>
-      <c r="BF23" s="16"/>
-      <c r="BG23" s="16"/>
-      <c r="BH23" s="16"/>
-      <c r="BI23" s="16"/>
-      <c r="BJ23" s="16"/>
-      <c r="BK23" s="16"/>
-      <c r="BL23" s="16"/>
-      <c r="BM23" s="16"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="15"/>
+      <c r="BC23" s="15"/>
+      <c r="BD23" s="15"/>
+      <c r="BE23" s="15"/>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="15"/>
+      <c r="BH23" s="15"/>
+      <c r="BI23" s="15"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="15"/>
+      <c r="BL23" s="15"/>
+      <c r="BM23" s="15"/>
     </row>
     <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="30">
+      <c r="A24" s="17"/>
+      <c r="B24" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="70">
         <v>4</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="30">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="31">
         <f>G24-D24</f>
         <v>43973</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="31">
         <f>F25</f>
         <v>43977</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15">
+      <c r="H24" s="14"/>
+      <c r="I24" s="14">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
-      <c r="AN24" s="16"/>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="16"/>
-      <c r="AS24" s="16"/>
-      <c r="AT24" s="16"/>
-      <c r="AU24" s="16"/>
-      <c r="AV24" s="16"/>
-      <c r="AW24" s="16"/>
-      <c r="AX24" s="16"/>
-      <c r="AY24" s="16"/>
-      <c r="AZ24" s="16"/>
-      <c r="BA24" s="16"/>
-      <c r="BB24" s="16"/>
-      <c r="BC24" s="16"/>
-      <c r="BD24" s="16"/>
-      <c r="BE24" s="16"/>
-      <c r="BF24" s="16"/>
-      <c r="BG24" s="16"/>
-      <c r="BH24" s="16"/>
-      <c r="BI24" s="16"/>
-      <c r="BJ24" s="16"/>
-      <c r="BK24" s="16"/>
-      <c r="BL24" s="16"/>
-      <c r="BM24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="15"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
+      <c r="BL24" s="15"/>
+      <c r="BM24" s="15"/>
     </row>
     <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="30">
+      <c r="A25" s="17"/>
+      <c r="B25" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="70">
         <v>4</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="30">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="31">
         <f>G25-D25</f>
         <v>43977</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="31">
         <f>F27-1</f>
         <v>43981</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15">
+      <c r="H25" s="14"/>
+      <c r="I25" s="14">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
-      <c r="AJ25" s="16"/>
-      <c r="AK25" s="16"/>
-      <c r="AL25" s="16"/>
-      <c r="AM25" s="16"/>
-      <c r="AN25" s="16"/>
-      <c r="AO25" s="16"/>
-      <c r="AP25" s="16"/>
-      <c r="AQ25" s="16"/>
-      <c r="AR25" s="16"/>
-      <c r="AS25" s="16"/>
-      <c r="AT25" s="16"/>
-      <c r="AU25" s="16"/>
-      <c r="AV25" s="16"/>
-      <c r="AW25" s="16"/>
-      <c r="AX25" s="16"/>
-      <c r="AY25" s="16"/>
-      <c r="AZ25" s="16"/>
-      <c r="BA25" s="16"/>
-      <c r="BB25" s="16"/>
-      <c r="BC25" s="16"/>
-      <c r="BD25" s="16"/>
-      <c r="BE25" s="16"/>
-      <c r="BF25" s="16"/>
-      <c r="BG25" s="16"/>
-      <c r="BH25" s="16"/>
-      <c r="BI25" s="16"/>
-      <c r="BJ25" s="16"/>
-      <c r="BK25" s="16"/>
-      <c r="BL25" s="16"/>
-      <c r="BM25" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="15"/>
+      <c r="BE25" s="15"/>
+      <c r="BF25" s="15"/>
+      <c r="BG25" s="15"/>
+      <c r="BH25" s="15"/>
+      <c r="BI25" s="15"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="15"/>
+      <c r="BL25" s="15"/>
+      <c r="BM25" s="15"/>
     </row>
     <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="30">
+      <c r="A26" s="17"/>
+      <c r="B26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="70">
         <v>7</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="30">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="31">
         <f>G26-D26</f>
         <v>43975</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="59">
         <f>F27</f>
         <v>43982</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="16"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="16"/>
-      <c r="AM26" s="16"/>
-      <c r="AN26" s="16"/>
-      <c r="AO26" s="16"/>
-      <c r="AP26" s="16"/>
-      <c r="AQ26" s="16"/>
-      <c r="AR26" s="16"/>
-      <c r="AS26" s="16"/>
-      <c r="AT26" s="16"/>
-      <c r="AU26" s="16"/>
-      <c r="AV26" s="16"/>
-      <c r="AW26" s="16"/>
-      <c r="AX26" s="16"/>
-      <c r="AY26" s="16"/>
-      <c r="AZ26" s="16"/>
-      <c r="BA26" s="16"/>
-      <c r="BB26" s="16"/>
-      <c r="BC26" s="16"/>
-      <c r="BD26" s="16"/>
-      <c r="BE26" s="16"/>
-      <c r="BF26" s="16"/>
-      <c r="BG26" s="16"/>
-      <c r="BH26" s="16"/>
-      <c r="BI26" s="16"/>
-      <c r="BJ26" s="16"/>
-      <c r="BK26" s="16"/>
-      <c r="BL26" s="16"/>
-      <c r="BM26" s="16"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="15"/>
+      <c r="BE26" s="15"/>
+      <c r="BF26" s="15"/>
+      <c r="BG26" s="15"/>
+      <c r="BH26" s="15"/>
+      <c r="BI26" s="15"/>
+      <c r="BJ26" s="15"/>
+      <c r="BK26" s="15"/>
+      <c r="BL26" s="15"/>
+      <c r="BM26" s="15"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="55">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="71">
         <v>30</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="52">
         <f ca="1">MIN(1,MAX(0,((G27-F27)-(G27-TODAY()))/(G27-F27)))</f>
         <v>0</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="53">
         <f>G27-D27</f>
         <v>43982</v>
       </c>
-      <c r="G27" s="58">
+      <c r="G27" s="65">
         <v>44012</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15">
+      <c r="H27" s="14"/>
+      <c r="I27" s="14">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="16"/>
-      <c r="AO27" s="16"/>
-      <c r="AP27" s="16"/>
-      <c r="AQ27" s="16"/>
-      <c r="AR27" s="16"/>
-      <c r="AS27" s="16"/>
-      <c r="AT27" s="16"/>
-      <c r="AU27" s="16"/>
-      <c r="AV27" s="16"/>
-      <c r="AW27" s="16"/>
-      <c r="AX27" s="16"/>
-      <c r="AY27" s="16"/>
-      <c r="AZ27" s="16"/>
-      <c r="BA27" s="16"/>
-      <c r="BB27" s="16"/>
-      <c r="BC27" s="16"/>
-      <c r="BD27" s="16"/>
-      <c r="BE27" s="16"/>
-      <c r="BF27" s="16"/>
-      <c r="BG27" s="16"/>
-      <c r="BH27" s="16"/>
-      <c r="BI27" s="16"/>
-      <c r="BJ27" s="16"/>
-      <c r="BK27" s="16"/>
-      <c r="BL27" s="16"/>
-      <c r="BM27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
+      <c r="BL27" s="15"/>
+      <c r="BM27" s="15"/>
     </row>
     <row r="28" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="G29" s="20"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
     <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
@@ -3664,14 +3846,9 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
   </mergeCells>
   <conditionalFormatting sqref="E18:E26 E7">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3685,20 +3862,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BM27">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="2" priority="46">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:BM27">
-    <cfRule type="expression" dxfId="1" priority="37">
+    <cfRule type="expression" dxfId="1" priority="40">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="41" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3711,8 +3888,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12 E14:E16">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="E14:E16">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3726,7 +3903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3740,7 +3917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3754,7 +3931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3768,7 +3945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3781,7 +3958,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="E11">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3ECAA28E-866A-0D41-BF22-0B26B451658C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3790,7 +3981,21 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A3C1BDA1-5A4A-2643-983C-8657061B4F67}</x14:id>
+          <x14:id>{748FB538-41E6-D84F-AF09-631B825FE2DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5B503F25-7675-7147-96B0-02B4C896413E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3852,7 +4057,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E11:E12 E14:E16</xm:sqref>
+          <xm:sqref>E14:E16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5050C37A-267B-B249-9CC1-8D15A446FD08}">
@@ -3915,7 +4120,37 @@
           <xm:sqref>E27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A3C1BDA1-5A4A-2643-983C-8657061B4F67}">
+          <x14:cfRule type="dataBar" id="{3ECAA28E-866A-0D41-BF22-0B26B451658C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{748FB538-41E6-D84F-AF09-631B825FE2DB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5B503F25-7675-7147-96B0-02B4C896413E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
